--- a/data/trans_camb/P1413-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P1413-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-15.11702763225311</v>
+        <v>-15.35912635838315</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.64487538179419</v>
+        <v>-14.49816875582123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.960961835847686</v>
+        <v>2.761843114424411</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.249645509036922</v>
+        <v>-5.913530173050506</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.528121298476186</v>
+        <v>-9.598097398857147</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>14.20298513893</v>
+        <v>14.47831885070889</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-9.35752903778557</v>
+        <v>-9.381940897147938</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-10.880994419581</v>
+        <v>-11.12693763299248</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.62644036575825</v>
+        <v>10.60981401827418</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-7.539363155118576</v>
+        <v>-7.494317979015874</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7.188647168658624</v>
+        <v>-7.294083788672223</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.05687818900487</v>
+        <v>13.81982045045295</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.467579085937033</v>
+        <v>1.481370966317664</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-2.649130192823863</v>
+        <v>-2.641919482149576</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.74672518763266</v>
+        <v>23.34532491185782</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-4.23469095892878</v>
+        <v>-3.920803393735382</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-5.661946595279877</v>
+        <v>-5.977605453915532</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.69202572575631</v>
+        <v>17.66462175753864</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.641188769199057</v>
+        <v>-0.6559333806980937</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6254587917852547</v>
+        <v>-0.6235394388385487</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1260013108268971</v>
+        <v>0.1207050249634089</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2472328374913247</v>
+        <v>-0.2393818290395454</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3898091088419779</v>
+        <v>-0.3902552118016507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5796460407432104</v>
+        <v>0.5869031614438163</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4035133668145185</v>
+        <v>-0.3988511973908967</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4703919195278057</v>
+        <v>-0.4692152479362477</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4594549673520867</v>
+        <v>0.4483182329183856</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.4109021325992827</v>
+        <v>-0.4239214658136926</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3985345635565899</v>
+        <v>-0.3871249783492415</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.765943459234139</v>
+        <v>0.7683556683870373</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.0693872254629074</v>
+        <v>0.072455903355937</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.127509342127478</v>
+        <v>-0.1273569966647904</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.088133778967683</v>
+        <v>1.127731997946814</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2066879537114131</v>
+        <v>-0.1923894264675976</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2824925911787247</v>
+        <v>-0.2902011056719448</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8703550756980158</v>
+        <v>0.8873016749132869</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-6.975044330671524</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.892162657319381</v>
+        <v>6.892162657319376</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-10.35669322841739</v>
+        <v>-10.23462261218617</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-11.30892128974756</v>
+        <v>-11.27065084678773</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5950781223587245</v>
+        <v>-1.105445501859041</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.735205292382371</v>
+        <v>-4.694717028666435</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.399048294996472</v>
+        <v>-9.22889367905789</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.785991003779243</v>
+        <v>6.9080535884304</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-6.233903831884036</v>
+        <v>-6.277092121649883</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.163317753540662</v>
+        <v>-9.294008720147239</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>4.47554421322858</v>
+        <v>4.476057126116338</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.053673595618319</v>
+        <v>-3.961220521569459</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.435176954903114</v>
+        <v>-5.606342726618839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.866030714854551</v>
+        <v>5.815191998544989</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.239757185725181</v>
+        <v>1.994431769295326</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.838842825864095</v>
+        <v>-2.563036010879041</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>13.46391281786658</v>
+        <v>13.60247532434869</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-1.708765064067415</v>
+        <v>-1.649183053283286</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-4.579028915132899</v>
+        <v>-4.883645170698345</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.358288160452426</v>
+        <v>9.162493092868502</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.3733698859373217</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3689332803103573</v>
+        <v>0.3689332803103569</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5499090677976379</v>
+        <v>-0.5440134070395327</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5982611614078936</v>
+        <v>-0.6070810971709699</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.03220337930433225</v>
+        <v>-0.06441133508083947</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2131907093800576</v>
+        <v>-0.2119497542350613</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4287376966104761</v>
+        <v>-0.4163145905097046</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2944563840021211</v>
+        <v>0.3084858075635984</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3091705579051021</v>
+        <v>-0.3148808522386938</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4623108395878828</v>
+        <v>-0.4678549915862395</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2214881995699688</v>
+        <v>0.2248098671464916</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2615206388370094</v>
+        <v>-0.2556492058166833</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.3385300143948966</v>
+        <v>-0.348405267619803</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3815258932316498</v>
+        <v>0.3756083994086643</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1178084977469663</v>
+        <v>0.1088526658504188</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1560221312236964</v>
+        <v>-0.1344034923039644</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7209474605421028</v>
+        <v>0.7408543795734943</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.09562960582738009</v>
+        <v>-0.09438594900005154</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2585512302566829</v>
+        <v>-0.2745435773441534</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5327632803888711</v>
+        <v>0.526161842360917</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.311139747190855</v>
+        <v>-7.402454263794968</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-9.605323204808981</v>
+        <v>-9.809005689048305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.676677489139141</v>
+        <v>-1.578017646479974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.133515062371432</v>
+        <v>-3.790873910909035</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.992426439099468</v>
+        <v>-7.974625592963223</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>8.224303177833677</v>
+        <v>8.145902670506217</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.786076758071166</v>
+        <v>-4.651805896928557</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-7.845061042486795</v>
+        <v>-7.977557994117444</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.250665026258186</v>
+        <v>4.181796402546077</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.987873686545589</v>
+        <v>-1.766094743737306</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.516562685928364</v>
+        <v>-4.322160552036799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.467191269998599</v>
+        <v>4.331741544304324</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.740770128218923</v>
+        <v>2.890039153200421</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.512496370346185</v>
+        <v>-1.181299817647289</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.61006191107399</v>
+        <v>14.3035282697163</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.2424018061230856</v>
+        <v>-0.3131870707608635</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.831504469281508</v>
+        <v>-3.760487135993498</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>8.587914084578914</v>
+        <v>8.577492026942227</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.3108721728808504</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7336816912962171</v>
+        <v>0.7336816912962167</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.174621323307971</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5077780105776518</v>
+        <v>-0.5163837817976192</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.663630473177664</v>
+        <v>-0.6765174078457656</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1213398813359079</v>
+        <v>-0.1142163381190817</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2342016964403766</v>
+        <v>-0.2245630101414782</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4816594779729745</v>
+        <v>-0.4795931443120525</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4871680552447557</v>
+        <v>0.4678453844515655</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.316065235428719</v>
+        <v>-0.305764266763395</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5201113305115544</v>
+        <v>-0.517525640514182</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2826558051987483</v>
+        <v>0.2779216041422096</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1699430544109529</v>
+        <v>-0.1538151495943301</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3769711003969441</v>
+        <v>-0.3593232252984687</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3838943938150521</v>
+        <v>0.3695396094527731</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2004120331525132</v>
+        <v>0.205737446668825</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1053249268174803</v>
+        <v>-0.08434891977417026</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.068460309469594</v>
+        <v>1.032548202097239</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.01842960197291059</v>
+        <v>-0.01843279640097777</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2772360569396864</v>
+        <v>-0.2801181053176663</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.667739989177739</v>
+        <v>0.6615908440034125</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-8.824160788870826</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.903707768028218</v>
+        <v>1.903707768028215</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-1.642601213276046</v>
@@ -1306,7 +1306,7 @@
         <v>-7.30558653809327</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.125275057767854</v>
+        <v>6.125275057767851</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.19995970145682</v>
+        <v>-11.806434446052</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-13.42321400724349</v>
+        <v>-12.8937076179881</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.23586178974201</v>
+        <v>-2.562007353471093</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.325983727037475</v>
+        <v>-7.551167744882161</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.95017339827572</v>
+        <v>-11.07469597807527</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.725258640398788</v>
+        <v>5.561418970634153</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-8.457154026456472</v>
+        <v>-8.210675309182548</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-10.51788886749958</v>
+        <v>-10.72069829053415</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.877216594753777</v>
+        <v>3.017398292559751</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.473668050303665</v>
+        <v>-3.545628190265831</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.897448079071111</v>
+        <v>-4.606429214399563</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.283661476258724</v>
+        <v>5.924948842846875</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.427205008930276</v>
+        <v>3.881005120192589</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.9291200678370668</v>
+        <v>-1.077387135916741</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.66248408285026</v>
+        <v>15.00585130195975</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.379236790463922</v>
+        <v>-1.488438828302778</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-4.064590237308546</v>
+        <v>-4.288650184111554</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.48397272691081</v>
+        <v>9.368379608793315</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.5587371360426934</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1205408935331091</v>
+        <v>0.120540893533109</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.09578861287416576</v>
@@ -1402,7 +1402,7 @@
         <v>-0.3438381476148534</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6127529381719</v>
+        <v>0.6127529381719004</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2922824197682883</v>
@@ -1411,7 +1411,7 @@
         <v>-0.4460207405283699</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3739603525275074</v>
+        <v>0.3739603525275073</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6479624069794938</v>
+        <v>-0.6467905429106461</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7210943313234125</v>
+        <v>-0.7067536133639231</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1151641044962069</v>
+        <v>-0.1351021171326536</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3556916695930269</v>
+        <v>-0.3689447665542577</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5440322144828312</v>
+        <v>-0.5410170758008723</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.274902677935373</v>
+        <v>0.2736680310726114</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4511201287655872</v>
+        <v>-0.4489312088204056</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5715940134232097</v>
+        <v>-0.5798083370325789</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1518692808894963</v>
+        <v>0.1604812933398731</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2304142376297379</v>
+        <v>-0.2541487478312913</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3511580202206188</v>
+        <v>-0.3367323160019897</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4684865513319284</v>
+        <v>0.4532980480661056</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2424127514687826</v>
+        <v>0.2793745304416964</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.04707649706551399</v>
+        <v>-0.06441347031495798</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.059056317480122</v>
+        <v>1.119580196907048</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.09140715467505449</v>
+        <v>-0.1020068111116117</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2825942451010314</v>
+        <v>-0.2949801049310882</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6714325948018144</v>
+        <v>0.657406267444585</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-7.861194277744217</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2.764635131572282</v>
+        <v>2.764635131572288</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-1.134872215823618</v>
@@ -1520,7 +1520,7 @@
         <v>-6.534540067672229</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>7.257394713081713</v>
+        <v>7.257394713081708</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-8.731238678868806</v>
+        <v>-8.59656569289168</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.408951161203372</v>
+        <v>-9.426994274722679</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.8534713119034834</v>
+        <v>0.8879598896839555</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.173096440693342</v>
+        <v>-3.108445230801219</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-7.190510062865801</v>
+        <v>-7.105083905333778</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>9.682721337693275</v>
+        <v>9.611413875581418</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-5.225009772049871</v>
+        <v>-5.260282871768206</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-7.770538936018672</v>
+        <v>-7.761280557483445</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.736397504092487</v>
+        <v>5.908611465469184</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-5.356925312458224</v>
+        <v>-5.407817941124766</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-6.218174033418767</v>
+        <v>-6.319760736797401</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.549535217134547</v>
+        <v>4.705188320749859</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.7214272732236091</v>
+        <v>0.6385049609151447</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-3.551262732621845</v>
+        <v>-3.541867056340905</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.27968425310157</v>
+        <v>13.4238179924338</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-2.663245310661627</v>
+        <v>-2.698582048723819</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-5.218473767031892</v>
+        <v>-5.253999241926913</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.467515425269303</v>
+        <v>8.501292953909168</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.4901776932643615</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1723863351588077</v>
+        <v>0.1723863351588081</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.05921623653530286</v>
@@ -1625,7 +1625,7 @@
         <v>-0.3708327320758141</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.41185446585889</v>
+        <v>0.4118544658588897</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5093016748112842</v>
+        <v>-0.5067589443184437</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5559216390236891</v>
+        <v>-0.5607317490282973</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.05134932429020837</v>
+        <v>0.05193033111313661</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1562284524567965</v>
+        <v>-0.1532106763224519</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3551725215436961</v>
+        <v>-0.3527473144707121</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4790942789660697</v>
+        <v>0.4741051681087444</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2872438140483867</v>
+        <v>-0.284319928212082</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4224102521172705</v>
+        <v>-0.4242401715005882</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3125655888611966</v>
+        <v>0.3213626406173592</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3479665468954016</v>
+        <v>-0.3593643389780823</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.4097418237692615</v>
+        <v>-0.423719606535676</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3049411943992584</v>
+        <v>0.3118789556776842</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.03931897547909476</v>
+        <v>0.03444498333803859</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.1907685233511662</v>
+        <v>-0.193264202008865</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7306539266057355</v>
+        <v>0.7514655917887193</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1555791668438179</v>
+        <v>-0.1589164732105382</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.3085500615879261</v>
+        <v>-0.3090570213195046</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.5047087415652523</v>
+        <v>0.5012845199293308</v>
       </c>
     </row>
     <row r="34">
